--- a/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/NADSystemsGenesMGI - rankZ sexgen.xlsx
+++ b/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/NADSystemsGenesMGI - rankZ sexgen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/rlg09972_uga_edu/Documents/Pazdro Lab/R01 Redox/Analysis and Results/QTL Mapping - Liver/RankZ/RankZ - sexgen/results/Genes MGI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beccagould/Rqtl2-Glutathione-Genetics/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="114_{AC1C0C3D-683B-8D44-BC23-975C34D946A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9B71109-66DD-7240-8052-4DFA1AFEEE64}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D3373-4629-2E41-9B4B-AFBB46B2F04C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="460" windowWidth="14820" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7720" yWindow="500" windowWidth="20440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NADP chr3" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1374">
   <si>
     <t>chr</t>
   </si>
@@ -4142,13 +4142,16 @@
   </si>
   <si>
     <t>receptor-like tyrosine kinase, pseudogene 1</t>
+  </si>
+  <si>
+    <t>EDITED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4160,6 +4163,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4185,11 +4203,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4528,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" zoomScale="273" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="F160" sqref="A160:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9275,6 +9297,806 @@
       </c>
       <c r="P116" t="s">
         <v>594</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>108.65387800000001</v>
+      </c>
+      <c r="B122">
+        <v>108.67883999999999</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>108.67863800000001</v>
+      </c>
+      <c r="B123">
+        <v>108.722334</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>108.73956</v>
+      </c>
+      <c r="B124">
+        <v>108.782309</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>108.793176</v>
+      </c>
+      <c r="B125">
+        <v>108.840526</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>108.853678</v>
+      </c>
+      <c r="B126">
+        <v>108.89000799999999</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>108.902805</v>
+      </c>
+      <c r="B127">
+        <v>108.911755</v>
+      </c>
+      <c r="C127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" t="s">
+        <v>59</v>
+      </c>
+      <c r="F127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>108.938543</v>
+      </c>
+      <c r="B128">
+        <v>108.960776</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>63</v>
+      </c>
+      <c r="E128" t="s">
+        <v>64</v>
+      </c>
+      <c r="F128" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>108.93987300000001</v>
+      </c>
+      <c r="B129">
+        <v>108.94044599999999</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" t="s">
+        <v>69</v>
+      </c>
+      <c r="F129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>108.970997</v>
+      </c>
+      <c r="B130">
+        <v>109.027607</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s">
+        <v>73</v>
+      </c>
+      <c r="E130" t="s">
+        <v>74</v>
+      </c>
+      <c r="F130" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>109.08046899999999</v>
+      </c>
+      <c r="B131">
+        <v>109.116687</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" t="s">
+        <v>100</v>
+      </c>
+      <c r="F131" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>109.123149</v>
+      </c>
+      <c r="B132">
+        <v>109.168457</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>109</v>
+      </c>
+      <c r="E132" t="s">
+        <v>110</v>
+      </c>
+      <c r="F132" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>109.34025800000001</v>
+      </c>
+      <c r="B133">
+        <v>109.685698</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" t="s">
+        <v>120</v>
+      </c>
+      <c r="F133" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>109.78004</v>
+      </c>
+      <c r="B134">
+        <v>110.14401100000001</v>
+      </c>
+      <c r="C134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" t="s">
+        <v>129</v>
+      </c>
+      <c r="F134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>110.246104</v>
+      </c>
+      <c r="B135">
+        <v>110.25099899999999</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" t="s">
+        <v>149</v>
+      </c>
+      <c r="E135" t="s">
+        <v>150</v>
+      </c>
+      <c r="F135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>113.24717800000001</v>
+      </c>
+      <c r="B136">
+        <v>113.258837</v>
+      </c>
+      <c r="C136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" t="s">
+        <v>269</v>
+      </c>
+      <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>113.279837</v>
+      </c>
+      <c r="B137">
+        <v>113.291449</v>
+      </c>
+      <c r="C137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" t="s">
+        <v>274</v>
+      </c>
+      <c r="E137" t="s">
+        <v>275</v>
+      </c>
+      <c r="F137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>113.312449</v>
+      </c>
+      <c r="B138">
+        <v>113.32405199999999</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>279</v>
+      </c>
+      <c r="E138" t="s">
+        <v>280</v>
+      </c>
+      <c r="F138" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>113.345049</v>
+      </c>
+      <c r="B139">
+        <v>113.356658</v>
+      </c>
+      <c r="C139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" t="s">
+        <v>284</v>
+      </c>
+      <c r="E139" t="s">
+        <v>285</v>
+      </c>
+      <c r="F139" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>113.52809499999999</v>
+      </c>
+      <c r="B140">
+        <v>113.532428</v>
+      </c>
+      <c r="C140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" t="s">
+        <v>289</v>
+      </c>
+      <c r="E140" t="s">
+        <v>290</v>
+      </c>
+      <c r="F140" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>113.55571</v>
+      </c>
+      <c r="B141">
+        <v>113.60669900000001</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" t="s">
+        <v>299</v>
+      </c>
+      <c r="E141" t="s">
+        <v>300</v>
+      </c>
+      <c r="F141" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>113.60506700000001</v>
+      </c>
+      <c r="B142">
+        <v>113.630149</v>
+      </c>
+      <c r="C142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" t="s">
+        <v>304</v>
+      </c>
+      <c r="E142" t="s">
+        <v>305</v>
+      </c>
+      <c r="F142" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>114.030479</v>
+      </c>
+      <c r="B143">
+        <v>114.22075599999999</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>327</v>
+      </c>
+      <c r="E143" t="s">
+        <v>328</v>
+      </c>
+      <c r="F143" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>114.904078</v>
+      </c>
+      <c r="B144">
+        <v>115.125764</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>347</v>
+      </c>
+      <c r="E144" t="s">
+        <v>348</v>
+      </c>
+      <c r="F144" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>115.71043299999999</v>
+      </c>
+      <c r="B145">
+        <v>115.71507200000001</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" t="s">
+        <v>377</v>
+      </c>
+      <c r="E145" t="s">
+        <v>378</v>
+      </c>
+      <c r="F145" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>115.887837</v>
+      </c>
+      <c r="B146">
+        <v>115.934361</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" t="s">
+        <v>392</v>
+      </c>
+      <c r="E146" t="s">
+        <v>393</v>
+      </c>
+      <c r="F146" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>115.938973</v>
+      </c>
+      <c r="B147">
+        <v>116.007414</v>
+      </c>
+      <c r="C147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" t="s">
+        <v>415</v>
+      </c>
+      <c r="E147" t="s">
+        <v>416</v>
+      </c>
+      <c r="F147" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>116.007448</v>
+      </c>
+      <c r="B148">
+        <v>116.029017</v>
+      </c>
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" t="s">
+        <v>435</v>
+      </c>
+      <c r="E148" t="s">
+        <v>436</v>
+      </c>
+      <c r="F148" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>116.109949</v>
+      </c>
+      <c r="B149">
+        <v>116.129688</v>
+      </c>
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" t="s">
+        <v>450</v>
+      </c>
+      <c r="E149" t="s">
+        <v>451</v>
+      </c>
+      <c r="F149" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>116.24965400000001</v>
+      </c>
+      <c r="B150">
+        <v>116.25350299999999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" t="s">
+        <v>475</v>
+      </c>
+      <c r="E150" t="s">
+        <v>476</v>
+      </c>
+      <c r="F150" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>116.272553</v>
+      </c>
+      <c r="B151">
+        <v>116.42874500000001</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" t="s">
+        <v>485</v>
+      </c>
+      <c r="E151" t="s">
+        <v>486</v>
+      </c>
+      <c r="F151" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>116.488963</v>
+      </c>
+      <c r="B152">
+        <v>116.508208</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" t="s">
+        <v>510</v>
+      </c>
+      <c r="E152" t="s">
+        <v>511</v>
+      </c>
+      <c r="F152" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>116.51307</v>
+      </c>
+      <c r="B153">
+        <v>116.549981</v>
+      </c>
+      <c r="C153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" t="s">
+        <v>520</v>
+      </c>
+      <c r="E153" t="s">
+        <v>521</v>
+      </c>
+      <c r="F153" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>116.562952</v>
+      </c>
+      <c r="B154">
+        <v>116.583134</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>540</v>
+      </c>
+      <c r="E154" t="s">
+        <v>541</v>
+      </c>
+      <c r="F154" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>116.572063</v>
+      </c>
+      <c r="B155">
+        <v>116.57442399999999</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" t="s">
+        <v>545</v>
+      </c>
+      <c r="E155" t="s">
+        <v>546</v>
+      </c>
+      <c r="F155" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>116.576643</v>
+      </c>
+      <c r="B156">
+        <v>116.614587</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" t="s">
+        <v>550</v>
+      </c>
+      <c r="E156" t="s">
+        <v>551</v>
+      </c>
+      <c r="F156" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>116.59495800000001</v>
+      </c>
+      <c r="B157">
+        <v>116.631004</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="s">
+        <v>555</v>
+      </c>
+      <c r="E157" t="s">
+        <v>556</v>
+      </c>
+      <c r="F157" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>116.631164</v>
+      </c>
+      <c r="B158">
+        <v>116.66269200000001</v>
+      </c>
+      <c r="C158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" t="s">
+        <v>565</v>
+      </c>
+      <c r="E158" t="s">
+        <v>566</v>
+      </c>
+      <c r="F158" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>116.641902</v>
+      </c>
+      <c r="B159">
+        <v>116.68125999999999</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" t="s">
+        <v>575</v>
+      </c>
+      <c r="E159" t="s">
+        <v>576</v>
+      </c>
+      <c r="F159" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>116.66946900000001</v>
+      </c>
+      <c r="B160">
+        <v>116.713741</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" t="s">
+        <v>585</v>
+      </c>
+      <c r="E160" t="s">
+        <v>586</v>
+      </c>
+      <c r="F160" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -9286,8 +10108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G102"/>
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15650,13 +16472,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:F76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15702,8 +16526,29 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1096</v>
       </c>
@@ -15740,8 +16585,29 @@
       <c r="O2" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <v>27.029886999999999</v>
+      </c>
+      <c r="U2">
+        <v>27.083549999999999</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1096</v>
       </c>
@@ -15778,8 +16644,29 @@
       <c r="O3" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <v>27.05095</v>
+      </c>
+      <c r="U3">
+        <v>27.160633000000001</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1096</v>
       </c>
@@ -15816,8 +16703,29 @@
       <c r="O4" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <v>27.083607000000001</v>
+      </c>
+      <c r="U4">
+        <v>27.133020999999999</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1096</v>
       </c>
@@ -15854,8 +16762,29 @@
       <c r="O5" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>27.090236999999998</v>
+      </c>
+      <c r="U5">
+        <v>27.114995</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1096</v>
       </c>
@@ -15892,8 +16821,29 @@
       <c r="O6" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <v>27.169771999999998</v>
+      </c>
+      <c r="U6">
+        <v>27.208051000000001</v>
+      </c>
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1096</v>
       </c>
@@ -15930,8 +16880,29 @@
       <c r="O7" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>27.262540000000001</v>
+      </c>
+      <c r="U7">
+        <v>27.266566999999998</v>
+      </c>
+      <c r="V7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1096</v>
       </c>
@@ -15968,8 +16939,29 @@
       <c r="O8" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <v>27.334264000000001</v>
+      </c>
+      <c r="U8">
+        <v>27.342718000000001</v>
+      </c>
+      <c r="V8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1096</v>
       </c>
@@ -16006,8 +16998,29 @@
       <c r="O9" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>27.345139</v>
+      </c>
+      <c r="U9">
+        <v>27.359072999999999</v>
+      </c>
+      <c r="V9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1096</v>
       </c>
@@ -16044,8 +17057,29 @@
       <c r="O10" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <v>27.598199000000001</v>
+      </c>
+      <c r="U10">
+        <v>27.616215</v>
+      </c>
+      <c r="V10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1096</v>
       </c>
@@ -16082,8 +17116,29 @@
       <c r="O11" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <v>27.631803000000001</v>
+      </c>
+      <c r="U11">
+        <v>27.631927000000001</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1096</v>
       </c>
@@ -16120,8 +17175,29 @@
       <c r="O12" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <v>27.946041999999998</v>
+      </c>
+      <c r="U12">
+        <v>27.982613000000001</v>
+      </c>
+      <c r="V12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1147</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1096</v>
       </c>
@@ -16158,8 +17234,29 @@
       <c r="O13" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>27.987684000000002</v>
+      </c>
+      <c r="U13">
+        <v>28.018926</v>
+      </c>
+      <c r="V13" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1096</v>
       </c>
@@ -16196,8 +17293,29 @@
       <c r="O14" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>28.054041000000002</v>
+      </c>
+      <c r="U14">
+        <v>28.056039999999999</v>
+      </c>
+      <c r="V14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1096</v>
       </c>
@@ -16234,8 +17352,29 @@
       <c r="O15" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>28.060390999999999</v>
+      </c>
+      <c r="U15">
+        <v>28.060528000000001</v>
+      </c>
+      <c r="V15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>901</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1096</v>
       </c>
@@ -16272,8 +17411,29 @@
       <c r="O16" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>28.249759000000001</v>
+      </c>
+      <c r="U16">
+        <v>28.339409</v>
+      </c>
+      <c r="V16" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1096</v>
       </c>
@@ -16310,8 +17470,29 @@
       <c r="O17" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>28.320634999999999</v>
+      </c>
+      <c r="U17">
+        <v>28.321058000000001</v>
+      </c>
+      <c r="V17" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1096</v>
       </c>
@@ -16348,8 +17529,29 @@
       <c r="O18" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <v>28.350263000000002</v>
+      </c>
+      <c r="U18">
+        <v>28.350394000000001</v>
+      </c>
+      <c r="V18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1096</v>
       </c>
@@ -16386,8 +17588,29 @@
       <c r="O19" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>28.437795000000001</v>
+      </c>
+      <c r="U19">
+        <v>28.552942000000002</v>
+      </c>
+      <c r="V19" t="s">
+        <v>25</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1096</v>
       </c>
@@ -16418,8 +17641,29 @@
       <c r="O20" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>28.469905000000001</v>
+      </c>
+      <c r="U20">
+        <v>28.470341999999999</v>
+      </c>
+      <c r="V20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1187</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1096</v>
       </c>
@@ -16456,8 +17700,29 @@
       <c r="O21" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>28.523050000000001</v>
+      </c>
+      <c r="U21">
+        <v>28.523356</v>
+      </c>
+      <c r="V21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1096</v>
       </c>
@@ -16494,8 +17759,29 @@
       <c r="O22" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <v>28.553754999999999</v>
+      </c>
+      <c r="U22">
+        <v>28.582552</v>
+      </c>
+      <c r="V22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1195</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1096</v>
       </c>
@@ -16532,8 +17818,29 @@
       <c r="O23" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>28.594172</v>
+      </c>
+      <c r="U23">
+        <v>28.623457999999999</v>
+      </c>
+      <c r="V23" t="s">
+        <v>25</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1096</v>
       </c>
@@ -16570,8 +17877,29 @@
       <c r="O24" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <v>28.630846999999999</v>
+      </c>
+      <c r="U24">
+        <v>28.635953000000001</v>
+      </c>
+      <c r="V24" t="s">
+        <v>25</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1096</v>
       </c>
@@ -16608,8 +17936,29 @@
       <c r="O25" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <v>28.649601000000001</v>
+      </c>
+      <c r="U25">
+        <v>28.659592</v>
+      </c>
+      <c r="V25" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1096</v>
       </c>
@@ -16646,8 +17995,29 @@
       <c r="O26" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <v>28.675207</v>
+      </c>
+      <c r="U26">
+        <v>28.682175000000001</v>
+      </c>
+      <c r="V26" t="s">
+        <v>18</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1096</v>
       </c>
@@ -16684,8 +18054,29 @@
       <c r="O27" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <v>28.679324999999999</v>
+      </c>
+      <c r="U27">
+        <v>28.679389</v>
+      </c>
+      <c r="V27" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1220</v>
+      </c>
+      <c r="X27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1096</v>
       </c>
@@ -16722,8 +18113,29 @@
       <c r="O28" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <v>28.690619999999999</v>
+      </c>
+      <c r="U28">
+        <v>28.750485999999999</v>
+      </c>
+      <c r="V28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1225</v>
+      </c>
+      <c r="X28" t="s">
+        <v>1226</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1096</v>
       </c>
@@ -16760,8 +18172,29 @@
       <c r="O29" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>28.740563000000002</v>
+      </c>
+      <c r="U29">
+        <v>28.745567999999999</v>
+      </c>
+      <c r="V29" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1230</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1231</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1096</v>
       </c>
@@ -16798,8 +18231,29 @@
       <c r="O30" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <v>28.751798000000001</v>
+      </c>
+      <c r="U30">
+        <v>28.869865000000001</v>
+      </c>
+      <c r="V30" t="s">
+        <v>18</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1235</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1096</v>
       </c>
@@ -16836,8 +18290,29 @@
       <c r="O31" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <v>28.769331999999999</v>
+      </c>
+      <c r="U31">
+        <v>28.777111000000001</v>
+      </c>
+      <c r="V31" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1240</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1096</v>
       </c>
@@ -16874,8 +18349,29 @@
       <c r="O32" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <v>28.789669</v>
+      </c>
+      <c r="U32">
+        <v>28.792611999999998</v>
+      </c>
+      <c r="V32" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X32" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1096</v>
       </c>
@@ -16912,8 +18408,29 @@
       <c r="O33" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <v>28.810137999999998</v>
+      </c>
+      <c r="U33">
+        <v>28.811191000000001</v>
+      </c>
+      <c r="V33" t="s">
+        <v>18</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1250</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1096</v>
       </c>
@@ -16950,8 +18467,29 @@
       <c r="O34" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <v>28.886230000000001</v>
+      </c>
+      <c r="U34">
+        <v>28.886382000000001</v>
+      </c>
+      <c r="V34" t="s">
+        <v>25</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1255</v>
+      </c>
+      <c r="X34" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1096</v>
       </c>
@@ -16988,8 +18526,29 @@
       <c r="O35" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>28.909832999999999</v>
+      </c>
+      <c r="U35">
+        <v>29.205331999999999</v>
+      </c>
+      <c r="V35" t="s">
+        <v>18</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1260</v>
+      </c>
+      <c r="X35" t="s">
+        <v>1261</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1096</v>
       </c>
@@ -17026,8 +18585,29 @@
       <c r="O36" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <v>28.910229000000001</v>
+      </c>
+      <c r="U36">
+        <v>29.041874</v>
+      </c>
+      <c r="V36" t="s">
+        <v>18</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1265</v>
+      </c>
+      <c r="X36" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1096</v>
       </c>
@@ -17064,8 +18644,29 @@
       <c r="O37" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <v>29.03518</v>
+      </c>
+      <c r="U37">
+        <v>29.035294</v>
+      </c>
+      <c r="V37" t="s">
+        <v>25</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1270</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>901</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1096</v>
       </c>
@@ -17102,8 +18703,29 @@
       <c r="O38" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <v>29.104486999999999</v>
+      </c>
+      <c r="U38">
+        <v>29.106850000000001</v>
+      </c>
+      <c r="V38" t="s">
+        <v>25</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1275</v>
+      </c>
+      <c r="X38" t="s">
+        <v>1276</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1096</v>
       </c>
@@ -17140,8 +18762,29 @@
       <c r="O39" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>29.205646999999999</v>
+      </c>
+      <c r="U39">
+        <v>29.278718000000001</v>
+      </c>
+      <c r="V39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1096</v>
       </c>
@@ -17178,8 +18821,29 @@
       <c r="O40" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>29.316914000000001</v>
+      </c>
+      <c r="U40">
+        <v>29.317618</v>
+      </c>
+      <c r="V40" t="s">
+        <v>25</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1285</v>
+      </c>
+      <c r="X40" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1096</v>
       </c>
@@ -17216,8 +18880,29 @@
       <c r="O41" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <v>29.439513999999999</v>
+      </c>
+      <c r="U41">
+        <v>29.458362000000001</v>
+      </c>
+      <c r="V41" t="s">
+        <v>18</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1290</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1096</v>
       </c>
@@ -17254,8 +18939,29 @@
       <c r="O42" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T42">
+        <v>29.526906</v>
+      </c>
+      <c r="U42">
+        <v>29.534890999999998</v>
+      </c>
+      <c r="V42" t="s">
+        <v>25</v>
+      </c>
+      <c r="W42" t="s">
+        <v>1295</v>
+      </c>
+      <c r="X42" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1096</v>
       </c>
@@ -17292,8 +18998,29 @@
       <c r="O43" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T43">
+        <v>29.528327999999998</v>
+      </c>
+      <c r="U43">
+        <v>29.923216</v>
+      </c>
+      <c r="V43" t="s">
+        <v>18</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1300</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1096</v>
       </c>
@@ -17330,8 +19057,29 @@
       <c r="O44" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T44">
+        <v>29.675628</v>
+      </c>
+      <c r="U44">
+        <v>29.686444999999999</v>
+      </c>
+      <c r="V44" t="s">
+        <v>25</v>
+      </c>
+      <c r="W44" t="s">
+        <v>1305</v>
+      </c>
+      <c r="X44" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1096</v>
       </c>
@@ -17362,8 +19110,29 @@
       <c r="O45" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <v>29.800369</v>
+      </c>
+      <c r="U45">
+        <v>29.801178</v>
+      </c>
+      <c r="V45" t="s">
+        <v>18</v>
+      </c>
+      <c r="W45" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X45" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1096</v>
       </c>
@@ -17400,8 +19169,29 @@
       <c r="O46" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T46">
+        <v>29.911432999999999</v>
+      </c>
+      <c r="U46">
+        <v>29.913160999999999</v>
+      </c>
+      <c r="V46" t="s">
+        <v>25</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1313</v>
+      </c>
+      <c r="X46" t="s">
+        <v>1314</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1096</v>
       </c>
@@ -17438,8 +19228,29 @@
       <c r="O47" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T47">
+        <v>29.924987999999999</v>
+      </c>
+      <c r="U47">
+        <v>29.937951000000002</v>
+      </c>
+      <c r="V47" t="s">
+        <v>25</v>
+      </c>
+      <c r="W47" t="s">
+        <v>1318</v>
+      </c>
+      <c r="X47" t="s">
+        <v>1319</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1096</v>
       </c>
@@ -17476,8 +19287,29 @@
       <c r="O48" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T48">
+        <v>29.937608000000001</v>
+      </c>
+      <c r="U48">
+        <v>30.017658000000001</v>
+      </c>
+      <c r="V48" t="s">
+        <v>18</v>
+      </c>
+      <c r="W48" t="s">
+        <v>1323</v>
+      </c>
+      <c r="X48" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1096</v>
       </c>
@@ -17514,8 +19346,29 @@
       <c r="O49" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T49">
+        <v>30.054659000000001</v>
+      </c>
+      <c r="U49">
+        <v>30.132984</v>
+      </c>
+      <c r="V49" t="s">
+        <v>25</v>
+      </c>
+      <c r="W49" t="s">
+        <v>1328</v>
+      </c>
+      <c r="X49" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1096</v>
       </c>
@@ -17552,8 +19405,29 @@
       <c r="O50" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T50">
+        <v>30.059467000000001</v>
+      </c>
+      <c r="U50">
+        <v>30.062252000000001</v>
+      </c>
+      <c r="V50" t="s">
+        <v>18</v>
+      </c>
+      <c r="W50" t="s">
+        <v>1333</v>
+      </c>
+      <c r="X50" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1096</v>
       </c>
@@ -17590,8 +19464,29 @@
       <c r="O51" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T51">
+        <v>30.133220000000001</v>
+      </c>
+      <c r="U51">
+        <v>30.135401000000002</v>
+      </c>
+      <c r="V51" t="s">
+        <v>25</v>
+      </c>
+      <c r="W51" t="s">
+        <v>1338</v>
+      </c>
+      <c r="X51" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1096</v>
       </c>
@@ -17628,8 +19523,29 @@
       <c r="O52" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T52">
+        <v>30.138446999999999</v>
+      </c>
+      <c r="U52">
+        <v>30.145820000000001</v>
+      </c>
+      <c r="V52" t="s">
+        <v>25</v>
+      </c>
+      <c r="W52" t="s">
+        <v>1343</v>
+      </c>
+      <c r="X52" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1096</v>
       </c>
@@ -17666,8 +19582,29 @@
       <c r="O53" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T53">
+        <v>30.174482000000001</v>
+      </c>
+      <c r="U53">
+        <v>30.373391999999999</v>
+      </c>
+      <c r="V53" t="s">
+        <v>25</v>
+      </c>
+      <c r="W53" t="s">
+        <v>1348</v>
+      </c>
+      <c r="X53" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1096</v>
       </c>
@@ -17704,8 +19641,29 @@
       <c r="O54" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <v>30.410558999999999</v>
+      </c>
+      <c r="U54">
+        <v>30.467358000000001</v>
+      </c>
+      <c r="V54" t="s">
+        <v>25</v>
+      </c>
+      <c r="W54" t="s">
+        <v>1353</v>
+      </c>
+      <c r="X54" t="s">
+        <v>1354</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1096</v>
       </c>
@@ -17742,8 +19700,29 @@
       <c r="O55" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T55">
+        <v>30.457968000000001</v>
+      </c>
+      <c r="U55">
+        <v>30.458071</v>
+      </c>
+      <c r="V55" t="s">
+        <v>25</v>
+      </c>
+      <c r="W55" t="s">
+        <v>1358</v>
+      </c>
+      <c r="X55" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1096</v>
       </c>
@@ -17780,8 +19759,29 @@
       <c r="O56" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T56">
+        <v>30.482821999999999</v>
+      </c>
+      <c r="U56">
+        <v>30.487051999999998</v>
+      </c>
+      <c r="V56" t="s">
+        <v>25</v>
+      </c>
+      <c r="W56" t="s">
+        <v>1363</v>
+      </c>
+      <c r="X56" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1096</v>
       </c>
@@ -17817,6 +19817,352 @@
       </c>
       <c r="O57" t="s">
         <v>1372</v>
+      </c>
+      <c r="T57">
+        <v>30.486733000000001</v>
+      </c>
+      <c r="U57">
+        <v>30.487912000000001</v>
+      </c>
+      <c r="V57" t="s">
+        <v>18</v>
+      </c>
+      <c r="W57" t="s">
+        <v>1368</v>
+      </c>
+      <c r="X57" t="s">
+        <v>1369</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>27.33426</v>
+      </c>
+      <c r="B62" s="3">
+        <v>27.34272</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>28.437799999999999</v>
+      </c>
+      <c r="B63" s="3">
+        <v>28.55294</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>28.469909999999999</v>
+      </c>
+      <c r="B64" s="3">
+        <v>28.47034</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>28.55376</v>
+      </c>
+      <c r="B65" s="3">
+        <v>28.582550000000001</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>28.594169999999998</v>
+      </c>
+      <c r="B66" s="3">
+        <v>28.623460000000001</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>28.630849999999999</v>
+      </c>
+      <c r="B67" s="3">
+        <v>28.635950000000001</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>28.6496</v>
+      </c>
+      <c r="B68" s="3">
+        <v>28.659590000000001</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>28.67521</v>
+      </c>
+      <c r="B69" s="3">
+        <v>28.682179999999999</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>28.690619999999999</v>
+      </c>
+      <c r="B70" s="3">
+        <v>28.750489999999999</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>28.751799999999999</v>
+      </c>
+      <c r="B71" s="3">
+        <v>28.869869999999999</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>28.76933</v>
+      </c>
+      <c r="B72" s="3">
+        <v>28.77711</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>29.52833</v>
+      </c>
+      <c r="B73" s="3">
+        <v>29.923220000000001</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>29.937609999999999</v>
+      </c>
+      <c r="B74" s="3">
+        <v>30.017659999999999</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>30.054659999999998</v>
+      </c>
+      <c r="B75" s="3">
+        <v>30.13298</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>30.174479999999999</v>
+      </c>
+      <c r="B76" s="3">
+        <v>30.373390000000001</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1352</v>
       </c>
     </row>
   </sheetData>

--- a/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/NADSystemsGenesMGI - rankZ sexgen.xlsx
+++ b/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/NADSystemsGenesMGI - rankZ sexgen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beccagould/Rqtl2-Glutathione-Genetics/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D3373-4629-2E41-9B4B-AFBB46B2F04C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50BA13-95C7-4A42-8A5C-C5C18A2A778B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="500" windowWidth="20440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5020" yWindow="500" windowWidth="23780" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NADP chr3" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4658" uniqueCount="1383">
   <si>
     <t>chr</t>
   </si>
@@ -4145,13 +4145,40 @@
   </si>
   <si>
     <t>EDITED</t>
+  </si>
+  <si>
+    <t>only protein coding and functional RNA genes</t>
+  </si>
+  <si>
+    <t>lncRNA</t>
+  </si>
+  <si>
+    <t>protein coding</t>
+  </si>
+  <si>
+    <t>snoRNA</t>
+  </si>
+  <si>
+    <t>rRNA</t>
+  </si>
+  <si>
+    <t>miRNA</t>
+  </si>
+  <si>
+    <t>unclassified</t>
+  </si>
+  <si>
+    <t>snRNA</t>
+  </si>
+  <si>
+    <t>unclassified non-coding RNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4169,13 +4196,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4203,7 +4223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4211,7 +4231,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4550,10 +4569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P160"/>
+  <dimension ref="A1:P209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="F160" sqref="A160:F160"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="109" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9299,6 +9318,14 @@
         <v>594</v>
       </c>
     </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1374</v>
+      </c>
+    </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>3</v>
@@ -9310,13 +9337,19 @@
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>14</v>
+      <c r="H121" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
@@ -9330,13 +9363,19 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
         <v>19</v>
       </c>
-      <c r="E122" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" t="s">
-        <v>24</v>
+      <c r="H122" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
@@ -9350,754 +9389,2183 @@
         <v>25</v>
       </c>
       <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
         <v>26</v>
       </c>
-      <c r="E123" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" t="s">
-        <v>30</v>
+      <c r="H123" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>108.73956</v>
+        <v>108.70890799999999</v>
       </c>
       <c r="B124">
-        <v>108.782309</v>
+        <v>108.712653</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>108.793176</v>
+        <v>108.73956</v>
       </c>
       <c r="B125">
-        <v>108.840526</v>
+        <v>108.782309</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>37</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>108.853678</v>
+        <v>108.793176</v>
       </c>
       <c r="B126">
-        <v>108.89000799999999</v>
+        <v>108.840526</v>
       </c>
       <c r="C126" t="s">
         <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>108.902805</v>
+        <v>108.853678</v>
       </c>
       <c r="B127">
-        <v>108.911755</v>
+        <v>108.89000799999999</v>
       </c>
       <c r="C127" t="s">
         <v>25</v>
       </c>
       <c r="D127" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E127" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F127" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>47</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
+        <v>108.902805</v>
+      </c>
+      <c r="B128">
+        <v>108.911755</v>
+      </c>
+      <c r="C128" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" t="s">
+        <v>59</v>
+      </c>
+      <c r="E128" t="s">
+        <v>62</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>58</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>108.938543</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>108.960776</v>
       </c>
-      <c r="C128" t="s">
-        <v>18</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
         <v>63</v>
       </c>
-      <c r="E128" t="s">
-        <v>64</v>
-      </c>
-      <c r="F128" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="H129" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>108.93987300000001</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>108.94044599999999</v>
       </c>
-      <c r="C129" t="s">
-        <v>25</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" t="s">
+        <v>72</v>
+      </c>
+      <c r="F130" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
         <v>68</v>
       </c>
-      <c r="E129" t="s">
-        <v>69</v>
-      </c>
-      <c r="F129" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="H130" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>108.970997</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>109.027607</v>
       </c>
-      <c r="C130" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131" t="s">
+        <v>77</v>
+      </c>
+      <c r="F131" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
         <v>73</v>
       </c>
-      <c r="E130" t="s">
-        <v>74</v>
-      </c>
-      <c r="F130" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="H131" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>109.000024</v>
+      </c>
+      <c r="B132">
+        <v>109.002094</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>79</v>
+      </c>
+      <c r="E132" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>78</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>109.055634</v>
+      </c>
+      <c r="B133">
+        <v>109.055747</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>84</v>
+      </c>
+      <c r="E133" t="s">
+        <v>88</v>
+      </c>
+      <c r="F133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>109.055708</v>
+      </c>
+      <c r="B134">
+        <v>109.065353</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>90</v>
+      </c>
+      <c r="E134" t="s">
+        <v>93</v>
+      </c>
+      <c r="F134" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>89</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>109.07859000000001</v>
+      </c>
+      <c r="B135">
+        <v>109.080414</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" t="s">
+        <v>95</v>
+      </c>
+      <c r="E135" t="s">
+        <v>98</v>
+      </c>
+      <c r="F135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>94</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136">
         <v>109.08046899999999</v>
       </c>
-      <c r="B131">
+      <c r="B136">
         <v>109.116687</v>
       </c>
-      <c r="C131" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>100</v>
+      </c>
+      <c r="E136" t="s">
+        <v>103</v>
+      </c>
+      <c r="F136" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
         <v>99</v>
       </c>
-      <c r="E131" t="s">
-        <v>100</v>
-      </c>
-      <c r="F131" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="H136" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>109.12053299999999</v>
+      </c>
+      <c r="B137">
+        <v>109.123074</v>
+      </c>
+      <c r="C137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" t="s">
+        <v>105</v>
+      </c>
+      <c r="E137" t="s">
+        <v>108</v>
+      </c>
+      <c r="F137" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>104</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138">
         <v>109.123149</v>
       </c>
-      <c r="B132">
+      <c r="B138">
         <v>109.168457</v>
       </c>
-      <c r="C132" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>110</v>
+      </c>
+      <c r="E138" t="s">
+        <v>113</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
         <v>109</v>
       </c>
-      <c r="E132" t="s">
-        <v>110</v>
-      </c>
-      <c r="F132" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="H138" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139">
         <v>109.34025800000001</v>
       </c>
-      <c r="B133">
+      <c r="B139">
         <v>109.685698</v>
       </c>
-      <c r="C133" t="s">
-        <v>18</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>120</v>
+      </c>
+      <c r="E139" t="s">
+        <v>123</v>
+      </c>
+      <c r="F139" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
         <v>119</v>
       </c>
-      <c r="E133" t="s">
-        <v>120</v>
-      </c>
-      <c r="F133" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="H139" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>109.450901</v>
+      </c>
+      <c r="B140">
+        <v>109.454701</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>125</v>
+      </c>
+      <c r="E140" t="s">
+        <v>127</v>
+      </c>
+      <c r="F140" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>124</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141">
         <v>109.78004</v>
       </c>
-      <c r="B134">
+      <c r="B141">
         <v>110.14401100000001</v>
       </c>
-      <c r="C134" t="s">
-        <v>25</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" t="s">
+        <v>132</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
         <v>128</v>
       </c>
-      <c r="E134" t="s">
-        <v>129</v>
-      </c>
-      <c r="F134" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="H141" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>109.86378000000001</v>
+      </c>
+      <c r="B142">
+        <v>109.863885</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s">
+        <v>134</v>
+      </c>
+      <c r="E142" t="s">
+        <v>138</v>
+      </c>
+      <c r="F142" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>133</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>110.24386199999999</v>
+      </c>
+      <c r="B143">
+        <v>110.24462800000001</v>
+      </c>
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" t="s">
+        <v>148</v>
+      </c>
+      <c r="F143" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>144</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144">
         <v>110.246104</v>
       </c>
-      <c r="B135">
+      <c r="B144">
         <v>110.25099899999999</v>
       </c>
-      <c r="C135" t="s">
-        <v>25</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" t="s">
+        <v>150</v>
+      </c>
+      <c r="E144" t="s">
+        <v>153</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
         <v>149</v>
       </c>
-      <c r="E135" t="s">
-        <v>150</v>
-      </c>
-      <c r="F135" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="H144" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>110.250015</v>
+      </c>
+      <c r="B145">
+        <v>110.25370599999999</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" t="s">
+        <v>158</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>154</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>110.564437</v>
+      </c>
+      <c r="B146">
+        <v>110.56454100000001</v>
+      </c>
+      <c r="C146" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" t="s">
+        <v>175</v>
+      </c>
+      <c r="E146" t="s">
+        <v>178</v>
+      </c>
+      <c r="F146" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>174</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>110.63432299999999</v>
+      </c>
+      <c r="B147">
+        <v>110.63685599999999</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>180</v>
+      </c>
+      <c r="E147" t="s">
+        <v>183</v>
+      </c>
+      <c r="F147" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>179</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>111.789492</v>
+      </c>
+      <c r="B148">
+        <v>111.791102</v>
+      </c>
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" t="s">
+        <v>195</v>
+      </c>
+      <c r="E148" t="s">
+        <v>198</v>
+      </c>
+      <c r="F148" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>194</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>111.88190299999999</v>
+      </c>
+      <c r="B149">
+        <v>112.08200100000001</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" t="s">
+        <v>205</v>
+      </c>
+      <c r="E149" t="s">
+        <v>208</v>
+      </c>
+      <c r="F149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>204</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>112.198915</v>
+      </c>
+      <c r="B150">
+        <v>112.19904099999999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" t="s">
+        <v>210</v>
+      </c>
+      <c r="E150" t="s">
+        <v>214</v>
+      </c>
+      <c r="F150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>209</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151">
         <v>113.24717800000001</v>
       </c>
-      <c r="B136">
+      <c r="B151">
+        <v>113.24769999999999</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
+        <v>266</v>
+      </c>
+      <c r="E151" t="s">
+        <v>268</v>
+      </c>
+      <c r="F151" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>265</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>113.24717800000001</v>
+      </c>
+      <c r="B152">
         <v>113.258837</v>
       </c>
-      <c r="C136" t="s">
-        <v>25</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" t="s">
+        <v>270</v>
+      </c>
+      <c r="E152" t="s">
+        <v>273</v>
+      </c>
+      <c r="F152" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
         <v>269</v>
       </c>
-      <c r="E136" t="s">
-        <v>270</v>
-      </c>
-      <c r="F136" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="H152" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153">
         <v>113.279837</v>
       </c>
-      <c r="B137">
+      <c r="B153">
         <v>113.291449</v>
       </c>
-      <c r="C137" t="s">
-        <v>25</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" t="s">
+        <v>275</v>
+      </c>
+      <c r="E153" t="s">
+        <v>278</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
         <v>274</v>
       </c>
-      <c r="E137" t="s">
-        <v>275</v>
-      </c>
-      <c r="F137" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="H153" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154">
         <v>113.312449</v>
       </c>
-      <c r="B138">
+      <c r="B154">
         <v>113.32405199999999</v>
       </c>
-      <c r="C138" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" t="s">
+        <v>280</v>
+      </c>
+      <c r="E154" t="s">
+        <v>283</v>
+      </c>
+      <c r="F154" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
         <v>279</v>
       </c>
-      <c r="E138" t="s">
-        <v>280</v>
-      </c>
-      <c r="F138" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="H154" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155">
         <v>113.345049</v>
       </c>
-      <c r="B139">
+      <c r="B155">
         <v>113.356658</v>
       </c>
-      <c r="C139" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" t="s">
+        <v>285</v>
+      </c>
+      <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
         <v>284</v>
       </c>
-      <c r="E139" t="s">
-        <v>285</v>
-      </c>
-      <c r="F139" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="H155" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156">
         <v>113.52809499999999</v>
       </c>
-      <c r="B140">
+      <c r="B156">
         <v>113.532428</v>
       </c>
-      <c r="C140" t="s">
-        <v>25</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" t="s">
+        <v>290</v>
+      </c>
+      <c r="E156" t="s">
+        <v>293</v>
+      </c>
+      <c r="F156" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" t="s">
         <v>289</v>
       </c>
-      <c r="E140" t="s">
-        <v>290</v>
-      </c>
-      <c r="F140" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="H156" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>113.543442</v>
+      </c>
+      <c r="B157">
+        <v>113.545824</v>
+      </c>
+      <c r="C157" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" t="s">
+        <v>295</v>
+      </c>
+      <c r="E157" t="s">
+        <v>298</v>
+      </c>
+      <c r="F157" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" t="s">
+        <v>294</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158">
         <v>113.55571</v>
       </c>
-      <c r="B141">
+      <c r="B158">
         <v>113.60669900000001</v>
       </c>
-      <c r="C141" t="s">
-        <v>25</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" t="s">
+        <v>300</v>
+      </c>
+      <c r="E158" t="s">
+        <v>303</v>
+      </c>
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
         <v>299</v>
       </c>
-      <c r="E141" t="s">
-        <v>300</v>
-      </c>
-      <c r="F141" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="H158" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159">
         <v>113.60506700000001</v>
       </c>
-      <c r="B142">
+      <c r="B159">
         <v>113.630149</v>
       </c>
-      <c r="C142" t="s">
-        <v>25</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" t="s">
+        <v>305</v>
+      </c>
+      <c r="E159" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
         <v>304</v>
       </c>
-      <c r="E142" t="s">
-        <v>305</v>
-      </c>
-      <c r="F142" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="H159" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>113.629853</v>
+      </c>
+      <c r="B160">
+        <v>113.631283</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" t="s">
+        <v>310</v>
+      </c>
+      <c r="E160" t="s">
+        <v>311</v>
+      </c>
+      <c r="F160" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>309</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161">
         <v>114.030479</v>
       </c>
-      <c r="B143">
+      <c r="B161">
         <v>114.22075599999999</v>
       </c>
-      <c r="C143" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" t="s">
+        <v>328</v>
+      </c>
+      <c r="E161" t="s">
+        <v>331</v>
+      </c>
+      <c r="F161" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
         <v>327</v>
       </c>
-      <c r="E143" t="s">
-        <v>328</v>
-      </c>
-      <c r="F143" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="H161" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>114.82415399999999</v>
+      </c>
+      <c r="B162">
+        <v>114.824285</v>
+      </c>
+      <c r="C162" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" t="s">
+        <v>338</v>
+      </c>
+      <c r="E162" t="s">
+        <v>341</v>
+      </c>
+      <c r="F162" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>337</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163">
         <v>114.904078</v>
       </c>
-      <c r="B144">
+      <c r="B163">
         <v>115.125764</v>
       </c>
-      <c r="C144" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" t="s">
+        <v>348</v>
+      </c>
+      <c r="E163" t="s">
+        <v>351</v>
+      </c>
+      <c r="F163" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
         <v>347</v>
       </c>
-      <c r="E144" t="s">
-        <v>348</v>
-      </c>
-      <c r="F144" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="H163" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>115.391554</v>
+      </c>
+      <c r="B164">
+        <v>115.391685</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
+        <v>358</v>
+      </c>
+      <c r="E164" t="s">
+        <v>361</v>
+      </c>
+      <c r="F164" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>357</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>115.484016</v>
+      </c>
+      <c r="B165">
+        <v>115.48413600000001</v>
+      </c>
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" t="s">
+        <v>363</v>
+      </c>
+      <c r="E165" t="s">
+        <v>366</v>
+      </c>
+      <c r="F165" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>362</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>115.63669299999999</v>
+      </c>
+      <c r="B166">
+        <v>115.64172600000001</v>
+      </c>
+      <c r="C166" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" t="s">
+        <v>373</v>
+      </c>
+      <c r="E166" t="s">
+        <v>376</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>372</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167">
         <v>115.71043299999999</v>
       </c>
-      <c r="B145">
+      <c r="B167">
         <v>115.71507200000001</v>
       </c>
-      <c r="C145" t="s">
-        <v>25</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C167" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" t="s">
+        <v>378</v>
+      </c>
+      <c r="E167" t="s">
+        <v>381</v>
+      </c>
+      <c r="F167" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
         <v>377</v>
       </c>
-      <c r="E145" t="s">
-        <v>378</v>
-      </c>
-      <c r="F145" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="H167" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>115.71514999999999</v>
+      </c>
+      <c r="B168">
+        <v>115.716728</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>383</v>
+      </c>
+      <c r="E168" t="s">
+        <v>386</v>
+      </c>
+      <c r="F168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>382</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>115.881578</v>
+      </c>
+      <c r="B169">
+        <v>115.88813</v>
+      </c>
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" t="s">
+        <v>388</v>
+      </c>
+      <c r="E169" t="s">
+        <v>391</v>
+      </c>
+      <c r="F169" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>387</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170">
         <v>115.887837</v>
       </c>
-      <c r="B146">
+      <c r="B170">
         <v>115.934361</v>
       </c>
-      <c r="C146" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>393</v>
+      </c>
+      <c r="E170" t="s">
+        <v>396</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
         <v>392</v>
       </c>
-      <c r="E146" t="s">
-        <v>393</v>
-      </c>
-      <c r="F146" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="H170" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>115.889261</v>
+      </c>
+      <c r="B171">
+        <v>115.892275</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
+        <v>398</v>
+      </c>
+      <c r="E171" t="s">
+        <v>399</v>
+      </c>
+      <c r="F171" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>397</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>115.91037</v>
+      </c>
+      <c r="B172">
+        <v>115.910533</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
+        <v>401</v>
+      </c>
+      <c r="E172" t="s">
+        <v>404</v>
+      </c>
+      <c r="F172" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>400</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>115.913809</v>
+      </c>
+      <c r="B173">
+        <v>115.914063</v>
+      </c>
+      <c r="C173" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" t="s">
+        <v>406</v>
+      </c>
+      <c r="E173" t="s">
+        <v>409</v>
+      </c>
+      <c r="F173" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>405</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>115.91388999999999</v>
+      </c>
+      <c r="B174">
+        <v>115.914182</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>411</v>
+      </c>
+      <c r="E174" t="s">
+        <v>414</v>
+      </c>
+      <c r="F174" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>410</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175">
         <v>115.938973</v>
       </c>
-      <c r="B147">
+      <c r="B175">
         <v>116.007414</v>
       </c>
-      <c r="C147" t="s">
-        <v>25</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="C175" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" t="s">
+        <v>416</v>
+      </c>
+      <c r="E175" t="s">
+        <v>419</v>
+      </c>
+      <c r="F175" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
         <v>415</v>
       </c>
-      <c r="E147" t="s">
-        <v>416</v>
-      </c>
-      <c r="F147" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="H175" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>115.979902</v>
+      </c>
+      <c r="B176">
+        <v>115.979955</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>431</v>
+      </c>
+      <c r="E176" t="s">
+        <v>434</v>
+      </c>
+      <c r="F176" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>430</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
         <v>116.007448</v>
       </c>
-      <c r="B148">
+      <c r="B177">
         <v>116.029017</v>
       </c>
-      <c r="C148" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="C177" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" t="s">
+        <v>436</v>
+      </c>
+      <c r="E177" t="s">
+        <v>439</v>
+      </c>
+      <c r="F177" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
         <v>435</v>
       </c>
-      <c r="E148" t="s">
-        <v>436</v>
-      </c>
-      <c r="F148" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="H177" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>116.065788</v>
+      </c>
+      <c r="B178">
+        <v>116.06591899999999</v>
+      </c>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" t="s">
+        <v>441</v>
+      </c>
+      <c r="E178" t="s">
+        <v>444</v>
+      </c>
+      <c r="F178" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>440</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>116.093593</v>
+      </c>
+      <c r="B179">
+        <v>116.102373</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" t="s">
+        <v>446</v>
+      </c>
+      <c r="E179" t="s">
+        <v>449</v>
+      </c>
+      <c r="F179" t="s">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>445</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180">
         <v>116.109949</v>
       </c>
-      <c r="B149">
+      <c r="B180">
         <v>116.129688</v>
       </c>
-      <c r="C149" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="C180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" t="s">
+        <v>451</v>
+      </c>
+      <c r="E180" t="s">
+        <v>454</v>
+      </c>
+      <c r="F180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
         <v>450</v>
       </c>
-      <c r="E149" t="s">
-        <v>451</v>
-      </c>
-      <c r="F149" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="H180" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>116.128451</v>
+      </c>
+      <c r="B181">
+        <v>116.14101599999999</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>456</v>
+      </c>
+      <c r="E181" t="s">
+        <v>459</v>
+      </c>
+      <c r="F181" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>455</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>116.13494</v>
+      </c>
+      <c r="B182">
+        <v>116.149136</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" t="s">
+        <v>461</v>
+      </c>
+      <c r="E182" t="s">
+        <v>464</v>
+      </c>
+      <c r="F182" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>460</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>116.150479</v>
+      </c>
+      <c r="B183">
+        <v>116.16582099999999</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" t="s">
+        <v>466</v>
+      </c>
+      <c r="E183" t="s">
+        <v>469</v>
+      </c>
+      <c r="F183" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
+        <v>465</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>116.19819699999999</v>
+      </c>
+      <c r="B184">
+        <v>116.20359000000001</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>471</v>
+      </c>
+      <c r="E184" t="s">
+        <v>474</v>
+      </c>
+      <c r="F184" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" t="s">
+        <v>470</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185">
         <v>116.24965400000001</v>
       </c>
-      <c r="B150">
+      <c r="B185">
         <v>116.25350299999999</v>
       </c>
-      <c r="C150" t="s">
-        <v>25</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>476</v>
+      </c>
+      <c r="E185" t="s">
+        <v>479</v>
+      </c>
+      <c r="F185" t="s">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
         <v>475</v>
       </c>
-      <c r="E150" t="s">
-        <v>476</v>
-      </c>
-      <c r="F150" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="H185" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>116.25794399999999</v>
+      </c>
+      <c r="B186">
+        <v>116.269982</v>
+      </c>
+      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" t="s">
+        <v>481</v>
+      </c>
+      <c r="E186" t="s">
+        <v>484</v>
+      </c>
+      <c r="F186" t="s">
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>480</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187">
         <v>116.272553</v>
       </c>
-      <c r="B151">
+      <c r="B187">
         <v>116.42874500000001</v>
       </c>
-      <c r="C151" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C187" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" t="s">
+        <v>486</v>
+      </c>
+      <c r="E187" t="s">
+        <v>489</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
         <v>485</v>
       </c>
-      <c r="E151" t="s">
-        <v>486</v>
-      </c>
-      <c r="F151" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="H187" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>116.350103</v>
+      </c>
+      <c r="B188">
+        <v>116.35288799999999</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" t="s">
+        <v>491</v>
+      </c>
+      <c r="E188" t="s">
+        <v>494</v>
+      </c>
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>490</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>116.424155</v>
+      </c>
+      <c r="B189">
+        <v>116.43543200000001</v>
+      </c>
+      <c r="C189" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" t="s">
+        <v>496</v>
+      </c>
+      <c r="E189" t="s">
+        <v>499</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189" t="s">
+        <v>495</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>116.44838900000001</v>
+      </c>
+      <c r="B190">
+        <v>116.448564</v>
+      </c>
+      <c r="C190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" t="s">
+        <v>501</v>
+      </c>
+      <c r="E190" t="s">
+        <v>504</v>
+      </c>
+      <c r="F190" t="s">
+        <v>17</v>
+      </c>
+      <c r="G190" t="s">
+        <v>500</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>116.46661899999999</v>
+      </c>
+      <c r="B191">
+        <v>116.46671499999999</v>
+      </c>
+      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>506</v>
+      </c>
+      <c r="E191" t="s">
+        <v>509</v>
+      </c>
+      <c r="F191" t="s">
+        <v>17</v>
+      </c>
+      <c r="G191" t="s">
+        <v>505</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192">
         <v>116.488963</v>
       </c>
-      <c r="B152">
+      <c r="B192">
         <v>116.508208</v>
       </c>
-      <c r="C152" t="s">
-        <v>25</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C192" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" t="s">
+        <v>511</v>
+      </c>
+      <c r="E192" t="s">
+        <v>514</v>
+      </c>
+      <c r="F192" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192" t="s">
         <v>510</v>
       </c>
-      <c r="E152" t="s">
-        <v>511</v>
-      </c>
-      <c r="F152" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="H192" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>116.488966</v>
+      </c>
+      <c r="B193">
+        <v>116.493358</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" t="s">
+        <v>516</v>
+      </c>
+      <c r="E193" t="s">
+        <v>519</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>515</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194">
         <v>116.51307</v>
       </c>
-      <c r="B153">
+      <c r="B194">
         <v>116.549981</v>
       </c>
-      <c r="C153" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>521</v>
+      </c>
+      <c r="E194" t="s">
+        <v>524</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
         <v>520</v>
       </c>
-      <c r="E153" t="s">
-        <v>521</v>
-      </c>
-      <c r="F153" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="H194" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>116.532149</v>
+      </c>
+      <c r="B195">
+        <v>116.53258700000001</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" t="s">
+        <v>531</v>
+      </c>
+      <c r="E195" t="s">
+        <v>534</v>
+      </c>
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" t="s">
+        <v>530</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196">
         <v>116.562952</v>
       </c>
-      <c r="B154">
+      <c r="B196">
         <v>116.583134</v>
       </c>
-      <c r="C154" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" t="s">
+        <v>541</v>
+      </c>
+      <c r="E196" t="s">
+        <v>544</v>
+      </c>
+      <c r="F196" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196" t="s">
         <v>540</v>
       </c>
-      <c r="E154" t="s">
-        <v>541</v>
-      </c>
-      <c r="F154" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="H196" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
         <v>116.572063</v>
       </c>
-      <c r="B155">
+      <c r="B197">
         <v>116.57442399999999</v>
       </c>
-      <c r="C155" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="C197" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" t="s">
+        <v>546</v>
+      </c>
+      <c r="E197" t="s">
+        <v>549</v>
+      </c>
+      <c r="F197" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" t="s">
         <v>545</v>
       </c>
-      <c r="E155" t="s">
-        <v>546</v>
-      </c>
-      <c r="F155" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="H197" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198">
         <v>116.576643</v>
       </c>
-      <c r="B156">
+      <c r="B198">
         <v>116.614587</v>
       </c>
-      <c r="C156" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="C198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" t="s">
+        <v>551</v>
+      </c>
+      <c r="E198" t="s">
+        <v>554</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" t="s">
         <v>550</v>
       </c>
-      <c r="E156" t="s">
-        <v>551</v>
-      </c>
-      <c r="F156" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="H198" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199">
         <v>116.59495800000001</v>
       </c>
-      <c r="B157">
+      <c r="B199">
         <v>116.631004</v>
       </c>
-      <c r="C157" t="s">
-        <v>18</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="C199" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" t="s">
+        <v>556</v>
+      </c>
+      <c r="E199" t="s">
+        <v>559</v>
+      </c>
+      <c r="F199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" t="s">
         <v>555</v>
       </c>
-      <c r="E157" t="s">
-        <v>556</v>
-      </c>
-      <c r="F157" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="H199" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>116.62917299999999</v>
+      </c>
+      <c r="B200">
+        <v>116.630984</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" t="s">
+        <v>561</v>
+      </c>
+      <c r="E200" t="s">
+        <v>564</v>
+      </c>
+      <c r="F200" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>560</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201">
         <v>116.631164</v>
       </c>
-      <c r="B158">
+      <c r="B201">
         <v>116.66269200000001</v>
       </c>
-      <c r="C158" t="s">
-        <v>25</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" t="s">
+        <v>566</v>
+      </c>
+      <c r="E201" t="s">
+        <v>569</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
         <v>565</v>
       </c>
-      <c r="E158" t="s">
-        <v>566</v>
-      </c>
-      <c r="F158" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="H201" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>116.631671</v>
+      </c>
+      <c r="B202">
+        <v>116.632209</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>571</v>
+      </c>
+      <c r="E202" t="s">
+        <v>574</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>570</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203">
         <v>116.641902</v>
       </c>
-      <c r="B159">
+      <c r="B203">
         <v>116.68125999999999</v>
       </c>
-      <c r="C159" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="C203" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" t="s">
+        <v>576</v>
+      </c>
+      <c r="E203" t="s">
+        <v>579</v>
+      </c>
+      <c r="F203" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" t="s">
         <v>575</v>
       </c>
-      <c r="E159" t="s">
-        <v>576</v>
-      </c>
-      <c r="F159" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="H203" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>116.663732</v>
+      </c>
+      <c r="B204">
+        <v>116.66415499999999</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>581</v>
+      </c>
+      <c r="E204" t="s">
+        <v>584</v>
+      </c>
+      <c r="F204" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" t="s">
+        <v>580</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205">
         <v>116.66946900000001</v>
       </c>
-      <c r="B160">
+      <c r="B205">
         <v>116.713741</v>
       </c>
-      <c r="C160" t="s">
-        <v>25</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="C205" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" t="s">
+        <v>586</v>
+      </c>
+      <c r="E205" t="s">
+        <v>589</v>
+      </c>
+      <c r="F205" t="s">
+        <v>17</v>
+      </c>
+      <c r="G205" t="s">
         <v>585</v>
       </c>
-      <c r="E160" t="s">
-        <v>586</v>
-      </c>
-      <c r="F160" t="s">
-        <v>589</v>
-      </c>
+      <c r="H205" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>116.690388</v>
+      </c>
+      <c r="B206">
+        <v>116.69338</v>
+      </c>
+      <c r="C206" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" t="s">
+        <v>591</v>
+      </c>
+      <c r="E206" t="s">
+        <v>594</v>
+      </c>
+      <c r="F206" t="s">
+        <v>17</v>
+      </c>
+      <c r="G206" t="s">
+        <v>590</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="D209" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16472,10 +17940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:F76"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19861,308 +21329,1340 @@
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H61" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>27.33426</v>
-      </c>
-      <c r="B62" s="3">
-        <v>27.34272</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="A62">
+        <v>27.029886999999999</v>
+      </c>
+      <c r="B62">
+        <v>27.083549999999999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>27.05095</v>
+      </c>
+      <c r="B63">
+        <v>27.160633000000001</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>27.083607000000001</v>
+      </c>
+      <c r="B64">
+        <v>27.133020999999999</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>27.090236999999998</v>
+      </c>
+      <c r="B65">
+        <v>27.114995</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>27.169771999999998</v>
+      </c>
+      <c r="B66">
+        <v>27.208051000000001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>27.334264000000001</v>
+      </c>
+      <c r="B67">
+        <v>27.342718000000001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
         <v>1127</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E67" t="s">
         <v>1128</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F67" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G67" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>28.437799999999999</v>
-      </c>
-      <c r="B63" s="3">
-        <v>28.55294</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>27.345139</v>
+      </c>
+      <c r="B68">
+        <v>27.359072999999999</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>27.598199000000001</v>
+      </c>
+      <c r="B69">
+        <v>27.616215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>27.631803000000001</v>
+      </c>
+      <c r="B70">
+        <v>27.631927000000001</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>27.946041999999998</v>
+      </c>
+      <c r="B71">
+        <v>27.982613000000001</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>27.987684000000002</v>
+      </c>
+      <c r="B72">
+        <v>28.018926</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>28.054041000000002</v>
+      </c>
+      <c r="B73">
+        <v>28.056039999999999</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>28.060390999999999</v>
+      </c>
+      <c r="B74">
+        <v>28.060528000000001</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>28.249759000000001</v>
+      </c>
+      <c r="B75">
+        <v>28.339409</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>28.320634999999999</v>
+      </c>
+      <c r="B76">
+        <v>28.321058000000001</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>28.350263000000002</v>
+      </c>
+      <c r="B77">
+        <v>28.350394000000001</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>28.437795000000001</v>
+      </c>
+      <c r="B78">
+        <v>28.552942000000002</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
         <v>1182</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E78" t="s">
         <v>1183</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F78" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G78" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>28.469909999999999</v>
-      </c>
-      <c r="B64" s="3">
-        <v>28.47034</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>28.469905000000001</v>
+      </c>
+      <c r="B79">
+        <v>28.470341999999999</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
         <v>1187</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E79" t="s">
         <v>1188</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F79" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G79" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>28.55376</v>
-      </c>
-      <c r="B65" s="3">
-        <v>28.582550000000001</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>28.553754999999999</v>
+      </c>
+      <c r="B80">
+        <v>28.582552</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
         <v>1195</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E80" t="s">
         <v>1196</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F80" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G80" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>28.594169999999998</v>
-      </c>
-      <c r="B66" s="3">
-        <v>28.623460000000001</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>28.594172</v>
+      </c>
+      <c r="B81">
+        <v>28.623457999999999</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
         <v>1200</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E81" t="s">
         <v>1201</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F81" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G81" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>28.630849999999999</v>
-      </c>
-      <c r="B67" s="3">
-        <v>28.635950000000001</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>28.630846999999999</v>
+      </c>
+      <c r="B82">
+        <v>28.635953000000001</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
         <v>1205</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E82" t="s">
         <v>1206</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F82" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G82" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>28.6496</v>
-      </c>
-      <c r="B68" s="3">
-        <v>28.659590000000001</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>28.649601000000001</v>
+      </c>
+      <c r="B83">
+        <v>28.659592</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
         <v>1210</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E83" t="s">
         <v>1211</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F83" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G83" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>28.67521</v>
-      </c>
-      <c r="B69" s="3">
-        <v>28.682179999999999</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>28.675207</v>
+      </c>
+      <c r="B84">
+        <v>28.682175000000001</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
         <v>1215</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E84" t="s">
         <v>1216</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F84" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G84" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>28.679324999999999</v>
+      </c>
+      <c r="B85">
+        <v>28.679389</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>28.690619999999999</v>
       </c>
-      <c r="B70" s="3">
-        <v>28.750489999999999</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="B86">
+        <v>28.750485999999999</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
         <v>1225</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E86" t="s">
         <v>1226</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F86" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G86" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>28.751799999999999</v>
-      </c>
-      <c r="B71" s="3">
-        <v>28.869869999999999</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>28.740563000000002</v>
+      </c>
+      <c r="B87">
+        <v>28.745567999999999</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>28.751798000000001</v>
+      </c>
+      <c r="B88">
+        <v>28.869865000000001</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
         <v>1235</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E88" t="s">
         <v>1236</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F88" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G88" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>28.76933</v>
-      </c>
-      <c r="B72" s="3">
-        <v>28.77711</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>28.769331999999999</v>
+      </c>
+      <c r="B89">
+        <v>28.777111000000001</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
         <v>1240</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E89" t="s">
         <v>1241</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F89" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G89" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>29.52833</v>
-      </c>
-      <c r="B73" s="3">
-        <v>29.923220000000001</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>28.789669</v>
+      </c>
+      <c r="B90">
+        <v>28.792611999999998</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>28.810137999999998</v>
+      </c>
+      <c r="B91">
+        <v>28.811191000000001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>28.909832999999999</v>
+      </c>
+      <c r="B92">
+        <v>29.205331999999999</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>28.910229000000001</v>
+      </c>
+      <c r="B93">
+        <v>29.041874</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>29.03518</v>
+      </c>
+      <c r="B94">
+        <v>29.035294</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>29.104486999999999</v>
+      </c>
+      <c r="B95">
+        <v>29.106850000000001</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>29.205646999999999</v>
+      </c>
+      <c r="B96">
+        <v>29.278718000000001</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>29.439513999999999</v>
+      </c>
+      <c r="B97">
+        <v>29.458362000000001</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>29.526906</v>
+      </c>
+      <c r="B98">
+        <v>29.534890999999998</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>29.528327999999998</v>
+      </c>
+      <c r="B99">
+        <v>29.923216</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
         <v>1300</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E99" t="s">
         <v>1301</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F99" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G99" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>29.937609999999999</v>
-      </c>
-      <c r="B74" s="3">
-        <v>30.017659999999999</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>29.675628</v>
+      </c>
+      <c r="B100">
+        <v>29.686444999999999</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>29.800369</v>
+      </c>
+      <c r="B101">
+        <v>29.801178</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>29.911432999999999</v>
+      </c>
+      <c r="B102">
+        <v>29.913160999999999</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>29.924987999999999</v>
+      </c>
+      <c r="B103">
+        <v>29.937951000000002</v>
+      </c>
+      <c r="C103" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>29.937608000000001</v>
+      </c>
+      <c r="B104">
+        <v>30.017658000000001</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
         <v>1323</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E104" t="s">
         <v>1324</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F104" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G104" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>30.054659999999998</v>
-      </c>
-      <c r="B75" s="3">
-        <v>30.13298</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>30.054659000000001</v>
+      </c>
+      <c r="B105">
+        <v>30.132984</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
         <v>1328</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E105" t="s">
         <v>1329</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F105" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G105" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>30.174479999999999</v>
-      </c>
-      <c r="B76" s="3">
-        <v>30.373390000000001</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>30.059467000000001</v>
+      </c>
+      <c r="B106">
+        <v>30.062252000000001</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>30.133220000000001</v>
+      </c>
+      <c r="B107">
+        <v>30.135401000000002</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>30.138446999999999</v>
+      </c>
+      <c r="B108">
+        <v>30.145820000000001</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>30.174482000000001</v>
+      </c>
+      <c r="B109">
+        <v>30.373391999999999</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
         <v>1348</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E109" t="s">
         <v>1349</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F109" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G109" t="s">
         <v>1352</v>
+      </c>
+      <c r="H109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>30.410558999999999</v>
+      </c>
+      <c r="B110">
+        <v>30.467358000000001</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>30.457968000000001</v>
+      </c>
+      <c r="B111">
+        <v>30.458071</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>30.482821999999999</v>
+      </c>
+      <c r="B112">
+        <v>30.487051999999998</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H112" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
